--- a/ordinanceCoding.xlsx
+++ b/ordinanceCoding.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prenercg/Dropbox/Professional/Research/Street Barriers Project/Data/Barrier Locations/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="22740" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Matched" sheetId="1" r:id="rId1"/>
     <sheet name="Unmatched" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -60,33 +55,9 @@
     <t>Alderman</t>
   </si>
   <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>durationMonths</t>
-  </si>
-  <si>
-    <t>Justification</t>
-  </si>
-  <si>
-    <t>emergencyClause</t>
-  </si>
-  <si>
     <t>reading1</t>
   </si>
   <si>
-    <t>refToCommittee</t>
-  </si>
-  <si>
-    <t>Committee</t>
-  </si>
-  <si>
-    <t>committeeSub</t>
-  </si>
-  <si>
-    <t>committeeAmend</t>
-  </si>
-  <si>
     <t>reading2</t>
   </si>
   <si>
@@ -99,24 +70,6 @@
     <t>perfectn</t>
   </si>
   <si>
-    <t>Passage</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Vetoed</t>
-  </si>
-  <si>
-    <t>vetoOverruled</t>
-  </si>
-  <si>
-    <t>repealsOld</t>
-  </si>
-  <si>
-    <t>repealedOrdiance</t>
-  </si>
-  <si>
     <t>repealed</t>
   </si>
   <si>
@@ -529,6 +482,54 @@
   </si>
   <si>
     <t>ordApplicable</t>
+  </si>
+  <si>
+    <t>Sixteenth Street</t>
+  </si>
+  <si>
+    <t>Preservation of public peace, health, safety</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>justification</t>
+  </si>
+  <si>
+    <t>emergClause</t>
+  </si>
+  <si>
+    <t>committee</t>
+  </si>
+  <si>
+    <t>refCommit</t>
+  </si>
+  <si>
+    <t>subCommit</t>
+  </si>
+  <si>
+    <t>amendCommit</t>
+  </si>
+  <si>
+    <t>passage</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>veto</t>
+  </si>
+  <si>
+    <t>vetoOverule</t>
+  </si>
+  <si>
+    <t>repealOld</t>
+  </si>
+  <si>
+    <t>repealedOrd</t>
   </si>
 </sst>
 </file>
@@ -606,13 +607,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -959,20 +963,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -983,7 +987,7 @@
     <col min="30" max="30" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,79 +1019,79 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" t="s">
         <v>166</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AF1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AH1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>170</v>
       </c>
@@ -1095,10 +1099,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>62461</v>
@@ -1116,7 +1120,7 @@
         <v>91178</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1127,8 +1131,8 @@
       <c r="M2">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
-        <v>36</v>
+      <c r="N2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1140,7 +1144,7 @@
         <v>33438</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1164,34 +1168,34 @@
         <v>33585</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA2" s="4">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC2" s="4">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AH2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>171</v>
       </c>
@@ -1199,10 +1203,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>62460</v>
@@ -1220,7 +1224,7 @@
         <v>91177</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1231,8 +1235,8 @@
       <c r="M3">
         <v>6</v>
       </c>
-      <c r="N3" t="s">
-        <v>36</v>
+      <c r="N3" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1244,7 +1248,7 @@
         <v>33438</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1268,34 +1272,34 @@
         <v>33585</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA3" s="4">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="4">
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>174</v>
       </c>
@@ -1303,10 +1307,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>62465</v>
@@ -1324,7 +1328,7 @@
         <v>91182</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1335,8 +1339,8 @@
       <c r="M4">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
-        <v>36</v>
+      <c r="N4" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1348,7 +1352,7 @@
         <v>33438</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1372,34 +1376,34 @@
         <v>33585</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA4" s="4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC4" s="4">
         <v>0</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>175</v>
       </c>
@@ -1407,10 +1411,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>62466</v>
@@ -1428,7 +1432,7 @@
         <v>91183</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1439,8 +1443,8 @@
       <c r="M5">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
-        <v>36</v>
+      <c r="N5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1452,7 +1456,7 @@
         <v>33438</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1476,34 +1480,34 @@
         <v>33585</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA5" s="4">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC5" s="4">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>176</v>
       </c>
@@ -1511,10 +1515,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>62464</v>
@@ -1532,7 +1536,7 @@
         <v>91181</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1543,8 +1547,8 @@
       <c r="M6">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
-        <v>36</v>
+      <c r="N6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1556,7 +1560,7 @@
         <v>33438</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1580,34 +1584,34 @@
         <v>33585</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA6" s="4">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC6" s="4">
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AF6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AH6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>177</v>
       </c>
@@ -1615,10 +1619,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>62463</v>
@@ -1636,7 +1640,7 @@
         <v>91180</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1647,8 +1651,8 @@
       <c r="M7">
         <v>6</v>
       </c>
-      <c r="N7" t="s">
-        <v>36</v>
+      <c r="N7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1660,7 +1664,7 @@
         <v>33438</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1684,34 +1688,34 @@
         <v>33585</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA7" s="4">
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC7" s="4">
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>185</v>
       </c>
@@ -1719,10 +1723,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>67880</v>
@@ -1740,7 +1744,7 @@
         <v>461</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1748,53 +1752,53 @@
       <c r="M8">
         <v>6</v>
       </c>
-      <c r="N8" t="s">
-        <v>38</v>
+      <c r="N8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="X8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Z8" s="2">
         <v>39499</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC8" s="4">
         <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -1809,7 +1813,7 @@
         <v>40662</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>186</v>
       </c>
@@ -1817,10 +1821,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>62459</v>
@@ -1838,7 +1842,7 @@
         <v>91176</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1849,8 +1853,8 @@
       <c r="M9">
         <v>6</v>
       </c>
-      <c r="N9" t="s">
-        <v>36</v>
+      <c r="N9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1862,7 +1866,7 @@
         <v>33438</v>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1886,19 +1890,19 @@
         <v>33585</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA9" s="4">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC9" s="4">
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -1913,7 +1917,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>187</v>
       </c>
@@ -1921,10 +1925,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>64504</v>
@@ -1942,7 +1946,7 @@
         <v>9862</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1951,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1966,7 +1970,7 @@
         <v>35951</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1990,34 +1994,34 @@
         <v>36112</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA10" s="4">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC10" s="4">
         <v>0</v>
       </c>
       <c r="AD10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>191</v>
       </c>
@@ -2025,10 +2029,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>67521</v>
@@ -2046,40 +2050,40 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="S11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Z11" s="2">
         <v>39244</v>
       </c>
       <c r="AB11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC11" s="4">
         <v>1</v>
@@ -2088,19 +2092,19 @@
         <v>63376</v>
       </c>
       <c r="AE11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2108,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>64519</v>
@@ -2123,10 +2127,10 @@
         <v>98135</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2134,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>64630</v>
@@ -2149,7 +2153,7 @@
         <v>64176</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2157,10 +2161,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>64179</v>
@@ -2178,10 +2182,10 @@
         <v>97205</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2189,10 +2193,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>62750</v>
@@ -2204,13 +2208,13 @@
         <v>92173</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2218,10 +2222,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>64873</v>
@@ -2233,7 +2237,7 @@
         <v>63856</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2241,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>66916</v>
@@ -2253,7 +2257,7 @@
         <v>66916</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2261,10 +2265,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>62648</v>
@@ -2273,10 +2277,10 @@
         <v>62648</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2284,10 +2288,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>64092</v>
@@ -2296,10 +2300,10 @@
         <v>64092</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2307,10 +2311,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>64093</v>
@@ -2319,10 +2323,10 @@
         <v>64093</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2330,10 +2334,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>64094</v>
@@ -2342,13 +2346,13 @@
         <v>64094</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AD21" s="3">
         <v>63526</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2356,10 +2360,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>63393</v>
@@ -2368,10 +2372,10 @@
         <v>63393</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>31</v>
       </c>
@@ -2379,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>66698</v>
@@ -2397,7 +2401,7 @@
         <v>66698</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>49</v>
       </c>
@@ -2405,10 +2409,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>68341</v>
@@ -2426,10 +2430,10 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>51</v>
       </c>
@@ -2437,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>68314</v>
@@ -2455,7 +2459,7 @@
         <v>9506</v>
       </c>
       <c r="J25" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="P25" s="2">
         <v>35171</v>
@@ -2464,13 +2468,13 @@
         <v>35171</v>
       </c>
       <c r="R25" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U25" s="2">
         <v>35237</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>52</v>
       </c>
@@ -2478,10 +2482,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>67367</v>
@@ -2496,10 +2500,10 @@
         <v>275</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>54</v>
       </c>
@@ -2507,10 +2511,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E27">
         <v>63996</v>
@@ -2528,7 +2532,7 @@
         <v>96242</v>
       </c>
       <c r="J27" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M27">
         <v>6</v>
@@ -2540,13 +2544,13 @@
         <v>35356</v>
       </c>
       <c r="R27" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U27" s="2">
         <v>35454</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>56</v>
       </c>
@@ -2554,10 +2558,10 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E28">
         <v>66621</v>
@@ -2575,13 +2579,13 @@
         <v>438</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>58</v>
       </c>
@@ -2589,10 +2593,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>66914</v>
@@ -2610,10 +2614,10 @@
         <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>60</v>
       </c>
@@ -2621,10 +2625,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>62977</v>
@@ -2639,7 +2643,7 @@
         <v>9380</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -2651,13 +2655,13 @@
         <v>34131</v>
       </c>
       <c r="R30" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U30" s="2">
         <v>34145</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>63</v>
       </c>
@@ -2665,10 +2669,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>68314</v>
@@ -2683,7 +2687,7 @@
         <v>9605</v>
       </c>
       <c r="J31" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -2695,13 +2699,13 @@
         <v>35171</v>
       </c>
       <c r="R31" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U31" s="2">
         <v>35237</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>64</v>
       </c>
@@ -2709,10 +2713,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E32">
         <v>68314</v>
@@ -2727,7 +2731,7 @@
         <v>9605</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M32">
         <v>6</v>
@@ -2739,13 +2743,13 @@
         <v>35171</v>
       </c>
       <c r="R32" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U32" s="2">
         <v>35237</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>65</v>
       </c>
@@ -2753,10 +2757,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <v>66621</v>
@@ -2771,7 +2775,7 @@
         <v>438</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M33">
         <v>6</v>
@@ -2780,7 +2784,7 @@
         <v>38373</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>66</v>
       </c>
@@ -2788,10 +2792,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E34">
         <v>66621</v>
@@ -2806,7 +2810,7 @@
         <v>438</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M34">
         <v>6</v>
@@ -2815,7 +2819,7 @@
         <v>38373</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34">
       <c r="A35">
         <v>69</v>
       </c>
@@ -2823,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>63996</v>
@@ -2841,7 +2845,7 @@
         <v>96242</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M35">
         <v>6</v>
@@ -2853,10 +2857,111 @@
         <v>35356</v>
       </c>
       <c r="R35" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U35" s="2">
         <v>35454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="30">
+      <c r="A36">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36">
+        <v>63818</v>
+      </c>
+      <c r="F36" s="2">
+        <v>35261</v>
+      </c>
+      <c r="G36">
+        <v>1996</v>
+      </c>
+      <c r="H36" s="3">
+        <v>63818</v>
+      </c>
+      <c r="I36">
+        <v>9590</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>35209</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>35209</v>
+      </c>
+      <c r="R36" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" s="2">
+        <v>35237</v>
+      </c>
+      <c r="V36" t="s">
+        <v>24</v>
+      </c>
+      <c r="W36" t="s">
+        <v>24</v>
+      </c>
+      <c r="X36" s="2">
+        <v>35244</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>35249</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2897,9 +3002,15 @@
     <hyperlink ref="H33" r:id="rId34" display="http://https/www.stlouis-mo.gov/internal-apps/legislative/upload/Ordinances/BOAPdf/66621x00.pdf"/>
     <hyperlink ref="H34" r:id="rId35" display="http://https/www.stlouis-mo.gov/internal-apps/legislative/upload/Ordinances/BOAPdf/66621x00.pdf"/>
     <hyperlink ref="H35" r:id="rId36" display="http://https/www.stlouis-mo.gov/internal-apps/legislative/upload/Ordinances/slplPdf/ord63996.pdf"/>
+    <hyperlink ref="H36" r:id="rId37" display="63818"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2907,17 +3018,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2943,19 +3054,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>172</v>
       </c>
@@ -2963,10 +3074,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>61691</v>
@@ -2978,13 +3089,13 @@
         <v>1989</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>178</v>
       </c>
@@ -2992,10 +3103,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>57951</v>
@@ -3007,13 +3118,13 @@
         <v>1979</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>179</v>
       </c>
@@ -3021,10 +3132,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>58292</v>
@@ -3036,13 +3147,13 @@
         <v>1981</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>180</v>
       </c>
@@ -3050,10 +3161,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>59980</v>
@@ -3065,16 +3176,16 @@
         <v>1986</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>181</v>
       </c>
@@ -3082,10 +3193,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>59980</v>
@@ -3097,16 +3208,16 @@
         <v>1986</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>182</v>
       </c>
@@ -3114,10 +3225,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>57213</v>
@@ -3129,13 +3240,13 @@
         <v>1976</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>183</v>
       </c>
@@ -3143,10 +3254,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>59980</v>
@@ -3158,16 +3269,16 @@
         <v>1986</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>184</v>
       </c>
@@ -3175,10 +3286,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <v>59043</v>
@@ -3190,13 +3301,13 @@
         <v>1984</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>188</v>
       </c>
@@ -3204,10 +3315,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>59043</v>
@@ -3219,13 +3330,13 @@
         <v>1984</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>189</v>
       </c>
@@ -3233,10 +3344,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>59043</v>
@@ -3248,13 +3359,13 @@
         <v>1984</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>193</v>
       </c>
@@ -3262,10 +3373,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>59081</v>
@@ -3277,16 +3388,16 @@
         <v>1984</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>173</v>
       </c>
@@ -3294,10 +3405,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>66473</v>
@@ -3312,7 +3423,7 @@
         <v>66473</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J13">
         <v>65473</v>
@@ -3321,7 +3432,7 @@
         <v>65473</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>190</v>
       </c>
@@ -3329,10 +3440,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>67880</v>
@@ -3347,13 +3458,13 @@
         <v>67880</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J14">
         <v>58878</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>192</v>
       </c>
@@ -3361,10 +3472,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>66473</v>
@@ -3379,7 +3490,7 @@
         <v>66473</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>65473</v>
@@ -3390,7 +3501,7 @@
       <c r="Z15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>7</v>
       </c>
@@ -3398,10 +3509,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>63106</v>
@@ -3410,13 +3521,13 @@
         <v>63106</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3424,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E17">
         <v>64731</v>
@@ -3436,13 +3547,13 @@
         <v>64731</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>11</v>
       </c>
@@ -3450,10 +3561,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>62750</v>
@@ -3462,13 +3573,13 @@
         <v>62750</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3476,22 +3587,22 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>63394</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3499,10 +3610,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>64761</v>
@@ -3511,13 +3622,13 @@
         <v>64761</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3525,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>62789</v>
@@ -3537,13 +3648,13 @@
         <v>62789</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3551,10 +3662,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>66693</v>
@@ -3566,16 +3677,16 @@
         <v>66693</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>66698</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3583,10 +3694,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E23">
         <v>66698</v>
@@ -3598,16 +3709,16 @@
         <v>66698</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>65491</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3615,10 +3726,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E24">
         <v>65491</v>
@@ -3630,16 +3741,16 @@
         <v>65491</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>65212</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3647,10 +3758,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E25">
         <v>65212</v>
@@ -3662,13 +3773,13 @@
         <v>65212</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K25" s="3">
         <v>65199</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3676,10 +3787,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>65199</v>
@@ -3691,13 +3802,13 @@
         <v>65199</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>65154</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3705,10 +3816,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E27">
         <v>65154</v>
@@ -3720,10 +3831,10 @@
         <v>65154</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>29</v>
       </c>
@@ -3731,10 +3842,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E28">
         <v>59113</v>
@@ -3746,10 +3857,10 @@
         <v>1997</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>30</v>
       </c>
@@ -3757,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E29">
         <v>64095</v>
@@ -3772,13 +3883,13 @@
         <v>64095</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K29" s="3">
         <v>66698</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>31</v>
       </c>
@@ -3786,10 +3897,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>66698</v>
@@ -3804,13 +3915,13 @@
         <v>66698</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>32</v>
       </c>
@@ -3818,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E31">
         <v>66698</v>
@@ -3836,16 +3947,16 @@
         <v>66698</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K31" s="3">
         <v>66027</v>
       </c>
       <c r="M31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>33</v>
       </c>
@@ -3853,10 +3964,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E32">
         <v>66027</v>
@@ -3871,10 +3982,10 @@
         <v>66027</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>35</v>
       </c>
@@ -3882,10 +3993,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <v>59114</v>
@@ -3897,13 +4008,13 @@
         <v>1992</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K33" s="3">
         <v>62744</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>36</v>
       </c>
@@ -3911,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E34">
         <v>62744</v>
@@ -3929,10 +4040,10 @@
         <v>62744</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>38</v>
       </c>
@@ -3940,10 +4051,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E35">
         <v>58382</v>
@@ -3955,13 +4066,13 @@
         <v>1995</v>
       </c>
       <c r="I35" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K35" s="3">
         <v>63561</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>39</v>
       </c>
@@ -3969,10 +4080,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>63561</v>
@@ -3987,13 +4098,13 @@
         <v>63561</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K36" s="3">
         <v>66693</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>40</v>
       </c>
@@ -4001,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E37">
         <v>66698</v>
@@ -4019,13 +4130,13 @@
         <v>66693</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K37" s="3">
         <v>65672</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>41</v>
       </c>
@@ -4033,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E38">
         <v>65672</v>
@@ -4051,10 +4162,10 @@
         <v>65672</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>43</v>
       </c>
@@ -4062,10 +4173,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <v>66698</v>
@@ -4080,13 +4191,13 @@
         <v>66698</v>
       </c>
       <c r="I39" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K39" s="3">
         <v>63309</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>44</v>
       </c>
@@ -4094,10 +4205,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E40">
         <v>63309</v>
@@ -4112,13 +4223,13 @@
         <v>63309</v>
       </c>
       <c r="I40" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K40" s="3">
         <v>64442</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>45</v>
       </c>
@@ -4126,10 +4237,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E41">
         <v>64442</v>
@@ -4144,13 +4255,13 @@
         <v>64442</v>
       </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>68341</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>46</v>
       </c>
@@ -4158,10 +4269,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E42">
         <v>68341</v>
@@ -4176,10 +4287,10 @@
         <v>68341</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>48</v>
       </c>
@@ -4187,10 +4298,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E43">
         <v>59380</v>
@@ -4199,13 +4310,13 @@
         <v>39951</v>
       </c>
       <c r="I43" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K43" s="3">
         <v>68341</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>50</v>
       </c>
@@ -4213,10 +4324,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E44">
         <v>68361</v>
@@ -4228,10 +4339,10 @@
         <v>68361</v>
       </c>
       <c r="I44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>51</v>
       </c>
@@ -4239,10 +4350,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>68314</v>
@@ -4251,10 +4362,10 @@
         <v>68314</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>53</v>
       </c>
@@ -4262,19 +4373,19 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E46">
         <v>58939</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>61</v>
       </c>
@@ -4282,10 +4393,10 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E47">
         <v>63566</v>
@@ -4297,10 +4408,10 @@
         <v>1995</v>
       </c>
       <c r="I47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>62</v>
       </c>
@@ -4308,10 +4419,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E48">
         <v>63966</v>
@@ -4326,13 +4437,13 @@
         <v>63966</v>
       </c>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>67</v>
       </c>
@@ -4340,10 +4451,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E49">
         <v>64081</v>
@@ -4355,7 +4466,7 @@
         <v>64081</v>
       </c>
       <c r="I49" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4410,5 +4521,10 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>